--- a/data/Disciplines.xlsx
+++ b/data/Disciplines.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27735" windowHeight="14955"/>
+    <workbookView windowWidth="27735" windowHeight="13530"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuille1!$A$1:$E$52</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="70">
   <si>
     <t>Equipe</t>
   </si>
@@ -43,15 +46,15 @@
     <t>oui</t>
   </si>
   <si>
+    <t>Carayon stat</t>
+  </si>
+  <si>
+    <t>stat</t>
+  </si>
+  <si>
     <t>Chercheurs</t>
   </si>
   <si>
-    <t>Carayon stat</t>
-  </si>
-  <si>
-    <t>stat</t>
-  </si>
-  <si>
     <t>Lafon socio</t>
   </si>
   <si>
@@ -190,12 +193,12 @@
     <t>Legat SPI</t>
   </si>
   <si>
+    <t>Gilbert SPI</t>
+  </si>
+  <si>
     <t>SPI</t>
   </si>
   <si>
-    <t>Gilbert SPI</t>
-  </si>
-  <si>
     <t>Husson SPI</t>
   </si>
   <si>
@@ -218,6 +221,12 @@
   </si>
   <si>
     <t>Chambon math stat</t>
+  </si>
+  <si>
+    <t>Sabatie</t>
+  </si>
+  <si>
+    <t>Haddane</t>
   </si>
 </sst>
 </file>
@@ -225,9 +234,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
@@ -269,6 +278,120 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -278,126 +401,12 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -420,37 +429,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,133 +567,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,24 +655,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -682,8 +673,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,12 +714,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -728,156 +752,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1231,10 +1240,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1274,7 +1283,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
@@ -1282,13 +1291,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
@@ -1302,7 +1311,7 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1316,7 +1325,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1330,7 +1339,7 @@
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1344,7 +1353,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:5">
@@ -1358,7 +1367,7 @@
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1372,7 +1381,7 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1386,7 +1395,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:5">
@@ -1400,7 +1409,7 @@
         <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1465,7 +1474,7 @@
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:5">
@@ -1513,7 +1522,7 @@
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1561,7 +1570,7 @@
         <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1572,10 +1581,10 @@
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1589,7 +1598,7 @@
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1603,7 +1612,7 @@
         <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:5">
@@ -1617,7 +1626,7 @@
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1631,7 +1640,7 @@
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1645,7 +1654,7 @@
         <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1656,10 +1665,10 @@
         <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1673,7 +1682,7 @@
         <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:5">
@@ -1687,7 +1696,7 @@
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:5">
@@ -1701,7 +1710,7 @@
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1866,10 +1875,10 @@
         <v>57</v>
       </c>
       <c r="C43" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1877,13 +1886,13 @@
         <v>56</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" t="s">
         <v>59</v>
       </c>
-      <c r="C44" t="s">
-        <v>58</v>
-      </c>
       <c r="E44" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1894,10 +1903,10 @@
         <v>60</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E45" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1908,10 +1917,10 @@
         <v>61</v>
       </c>
       <c r="C46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E46" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:5">
@@ -1922,10 +1931,10 @@
         <v>62</v>
       </c>
       <c r="C47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E47" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1936,7 +1945,7 @@
         <v>63</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
@@ -1956,7 +1965,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1970,7 +1979,7 @@
         <v>13</v>
       </c>
       <c r="E50" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1995,13 +2004,44 @@
         <v>67</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
         <v>45</v>
       </c>
     </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E52">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
